--- a/data/hotels_by_city/Dallas/Dallas_shard_378.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_378.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Cheri H</t>
   </si>
   <si>
     <t>06/12/2018</t>
@@ -188,6 +191,9 @@
 I originally booked in Mansfield because they had an indoor pool and it was March. Hubby and I were in Texas for some emergency medical care, so the room was very important. I made a booking for a room with a roll-in shower. All seemed well when we settled in...until night came. The room was at the very end of the hallway and the exit door slammed shut with a horrendous BANG every time someone entered or exited ...which was often. I don't know the proper name, but why couldn't they invest a few bucks in one of those little door devices that slows the closing so that this doesn't happen? To add insult to injury, there were several dogs in the room across from us who decided to practice for their operatic debut. It didn't help when one of the dogs went missing and the owners were right outside our window, late at night, yelling for its return. When I saw the clerk, Bob, he was great. He apologized for the inconvenience and said we could change rooms. Obviously, we chose to wait until the next morning. That's when thing truly went downhill. The morning/day clerk, Daniel, had all of the enthusiasm of a dry mop, but he did change our room. Well, it...This is a hard review to write. Normaly, we've had good - great experiences with this chain, but this particular hotel was a let down.I originally booked in Mansfield because they had an indoor pool and it was March. Hubby and I were in Texas for some emergency medical care, so the room was very important. I made a booking for a room with a roll-in shower. All seemed well when we settled in...until night came. The room was at the very end of the hallway and the exit door slammed shut with a horrendous BANG every time someone entered or exited ...which was often. I don't know the proper name, but why couldn't they invest a few bucks in one of those little door devices that slows the closing so that this doesn't happen? To add insult to injury, there were several dogs in the room across from us who decided to practice for their operatic debut. It didn't help when one of the dogs went missing and the owners were right outside our window, late at night, yelling for its return. When I saw the clerk, Bob, he was great. He apologized for the inconvenience and said we could change rooms. Obviously, we chose to wait until the next morning. That's when thing truly went downhill. The morning/day clerk, Daniel, had all of the enthusiasm of a dry mop, but he did change our room. Well, it wasn't the same type, but we were stuck. So, my amputee husband had to do a balancing act on the edge of a tub, holding onto the bars. The only reason he was able to get in and out was because he just happened to bring along a plastic shelf for tubs...not something a person ordinarily carries in his suitcase.Shortly after settling in, we discovered the TV wasn't receiving the cable signal. Back down I go to the front desk, only to be told by the dry mop that I needed to hit the HDMI button, etc, since it was a new TV. Well, we tried, but we couldn't get it working. Dry mop finally sent a maid who did. We went out for a meal and when we came back...same problem. Hubby asked for the TV to be changed and dry mop said it couldn't be done and that the TV was always like that. Ummmm...he told me it was new! Well, now we had another problem...the fridge/freezer door wouldn't stay closed. Down I went again. Fortunately, the maintenance lady had overheard the TV conversation and made arrangements for both the TV and fridge freezer to be replaced.Pros:  --Bob, evening clerk, was a great example of customer service. He never failed to greet guests when they passed by.--The maintenance lady was amazing! She seemed to be in 1001 places at the same time and constantly checked to make sure the hot tub was functioning okay whenever she passed by and someone was using it. She took care of the problems we had, quickly and efficiently. --The pool and hot tub were kept at comfortsble temperatures. I really enjoyed my swims there.--The breakfast was hot, fresh and plentiful. The ladies who ran it did a great job. The area was always clean.Cons: -- Daniel, the day clerk, needs to take a refresher course on customer service. While he wasn't surly, he wasn't far from it. Sorry, but an improperly working TV, fridge, serious noise levels and non-existent WiFi signals were not caused by us, the CUSTOMERS. --Our accessible handicap room was inexcusably noisy. It felt like punishment.--No WiFi signal in the first room. --Having to request working items in our room (TV, fridge/freezer). Why aren't these checked between guests?There are better options in the area.More</t>
   </si>
   <si>
+    <t>BixTex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r366163373-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -227,6 +233,9 @@
     <t>I loved my 1 night stay here. Bob at the front desk was incredibly helpful. Everything was clean, the hotel was easy to get to. My room had everything I needed. I felt like I could relax. I would highly recommend this hotel.</t>
   </si>
   <si>
+    <t>sucaso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r357187341-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
     <t xml:space="preserve">We were only here for a few hours, but we slept comfortably after driving 14 hours! The room was clean and spacious, and the customer service was great. We didn't try the breakfast, but it smelled good. </t>
   </si>
   <si>
+    <t>Amy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r338468000-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -269,6 +281,9 @@
     <t>Manilo the manager was great!! Katie checked us &amp; it was easy &amp; FAST!! Breakfast was very good!! Clean rooms..quiet stay!! Definitely will stay again!! Close to the AT &amp; T stadium! Price was great!! GREAT PLACE TO STAY..Local resturants were great!! Staff was awesome..More</t>
   </si>
   <si>
+    <t>Nama5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r336088827-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
     <t>Facility is easy to find off I 35. Queen beds are queen size, comfy, pool is cool and hot tub is hot. Everything is clean and in good repair. Breakfast was a treat we really appreciated. Staff also was very courteous and helpful both with check in and with questions of which restaurants deliver. More</t>
   </si>
   <si>
+    <t>Ken C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r332540403-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -311,6 +329,9 @@
     <t>We had an overnight trip from Austin, Tx, to Mansfield to watch our daughter-in-law graduate at University of North Texas.  The hotel appears to be new construction, so there were no issues with the building or room.  There does appear to be a staffing problem, as they only had one person on duty (and the hotel was full), so we had a bit of a wait to get checked in.We get our room keys and head up to grab a quick nap.  And of course, the electronic door key didn't work.  So, it's back downstairs to get that fixed.  And here's a tip for anyone working the desk at a hotel.  If a guest says their room key doesn't work, the last thing we want to hear is "wow...it's supposed to work".  Really?  You don't think we realize that?Our room was in the front of the hotel, facing the highway.  Road noise was more than I would have expected with new construction.We grabbed breakfast there the next morning before heading out.  The stock of hot items (eggs, meat) was pretty low.  Breads were nothing to write home about.Next time we go back to Mansfield, we'll probably check out the Best Western located just down the road.More</t>
   </si>
   <si>
+    <t>Kyle N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r332285414-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -332,6 +353,9 @@
     <t>This is a typical Holiday Inn Express property, fairly easy to find, clean, large rooms, pleasant staff.  Within easy driving distance of restaurants.  Free wifi and all amenities you would expect in such a property.More</t>
   </si>
   <si>
+    <t>breezyww</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r331483131-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -359,6 +383,9 @@
     <t>We had 3 kids with us this trip and decided to spring for the 2-room suite.  Side note, we were unable to use our points toward this room, we are finding this more often with HI.  We mostly liked it, It was very spacious with lots of room for everyone.  What we didn't like; the Jack-n-Jill bathroom set up, the worn out and nasty pull out couch (twin size), the large carpet stains.  All rooms should be well kept and updated, but the suites should be even more so. The rooms also need better sound proofing, we could hear our neighbors above us every foot steps, thankfully they went to bed early.  The breakfast was standard HI, there weren't enough tables and we ate our food on one of the couches.More</t>
   </si>
   <si>
+    <t>maggie5arkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r320523536-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -386,6 +413,9 @@
     <t>Our room was clean.  The pool and hot tub was very nice and clean!  Very pretty also!  My husband discovered after we got back home that he had left his Kindle in our room.  He immediately called and housekeeping had turned it in.  How nice to have honest people!  He gave his mailing and payment information and they shipped it to us!  Breakfast was very good--pancakes, scrambled eggs, sausage, cereals, yogurts,fruit, boiled eggs, coffee and juices.More</t>
   </si>
   <si>
+    <t>Tess T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r204595726-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -413,6 +443,9 @@
     <t>Beware - if you're traveling with your pet, DO NOT STAY HERE!  We were recently gifted with a puppy and because we travel a lot (especially in the Dallas area), we bring our mini-Schauzer pup with us.  In general, our puppy is well behaved but because it is the nature of their breed, they are very energetic and they bark.  Since he's traveled a lot with us, we are familiar with hotel pet rules and we never take him to "common areas" unless needed.  We also use the stairs and side doors to get in and out.  We stayed at this hotel because it is close to where my husband's company plant is.  Right from the beginning, I've noticed that the staff were not very welcoming to guests with pets.    This became very apparent when I needed to bring my pup with me to the lobby to change key cards because we had to extend our stay.  It was brief but she rudely reminded me that pets are not allowed in the lobby.  I gently told her that I was aware of that but I couldn't leave my puppy in the room because he makes a lot of noise and I didn't want to disturb other guests.  She made a big deal out of it.  For $20/day pet fee, this is not worth it (and to think we stayed here for 8 days)!!  We will never stay at this hotel...Beware - if you're traveling with your pet, DO NOT STAY HERE!  We were recently gifted with a puppy and because we travel a lot (especially in the Dallas area), we bring our mini-Schauzer pup with us.  In general, our puppy is well behaved but because it is the nature of their breed, they are very energetic and they bark.  Since he's traveled a lot with us, we are familiar with hotel pet rules and we never take him to "common areas" unless needed.  We also use the stairs and side doors to get in and out.  We stayed at this hotel because it is close to where my husband's company plant is.  Right from the beginning, I've noticed that the staff were not very welcoming to guests with pets.    This became very apparent when I needed to bring my pup with me to the lobby to change key cards because we had to extend our stay.  It was brief but she rudely reminded me that pets are not allowed in the lobby.  I gently told her that I was aware of that but I couldn't leave my puppy in the room because he makes a lot of noise and I didn't want to disturb other guests.  She made a big deal out of it.  For $20/day pet fee, this is not worth it (and to think we stayed here for 8 days)!!  We will never stay at this hotel ever again!!More</t>
   </si>
   <si>
+    <t>rickmcvinnie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r192809952-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -443,6 +476,9 @@
     <t>We moved our kids to Mansfield Texas and stayed at the Holiday Inn Express. I've stayed at a number of Holiday Inn Expresses and this one has been the best so far. The rooms are spacious and fairly priced to the Dallas area. We had a problem with the toilet flushing so instead of waiting for a repair they had us move to another room equally as nice. I will stay here again when I come to visit my kids.More</t>
   </si>
   <si>
+    <t>Victoria M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r189373999-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -470,6 +506,9 @@
     <t>We stayed at this Holiday Inn to attend a Cowboys game the stadium was fairly close and the hotel offers a shuttle to the game which is nice. The room was clean and the beds were very comfortable- slept great. There are a few shopping centers near by one with a Starbucks which was very important to us. The free breakfast the next day was good, love the cinnamon rolls and the sausage &amp;  eggs. They have a pancake maker and pretty good bagels and cream cheese as well as fresh fruit and a variety of yogurt and juice bar. I was very pleased with our stay. Great price also. The staff was very helpful and kind my son became very sick and they seemed genuinely concerned.  I was not aware of the hot tub and indoor pool if I had known we would have brought our suits.  Shower head was a rainfall shower head and water was very hot -loved itMore</t>
   </si>
   <si>
+    <t>JeffUru</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r176235527-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -497,6 +536,9 @@
     <t>We stayed in Mansfield for 10 days to do some business and take some time off.  The staff were both friendly and helpful; the facilities were spotless, our room was a King Suite with fridge &amp; microwave.  The breakfast every morning was a complete meal, not coffee &amp; a roll.  The night we got there, there was a "Manager's Special" in the dining room; baked chicken, corn, drinks &amp; coffee.  It was free and really good.  Nice extra.  Thanks Jennifer, Nathan &amp; Kim!  Not sure if we'll pass through Mansfield again, but you made our stay pleasant!More</t>
   </si>
   <si>
+    <t>MrsVJB1973</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r152582093-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -524,6 +566,9 @@
     <t>I absolutely love this property. My first initial stay I knew I would be back! The staff is always pleasant and the rooms are always clean! The bathrooms are always the first thing I check when I go into a Hotel and I've stayed at this location 3 times and everytime the bathroom especially the bottom, front, and sides of the toilet are immaculate! My second trip at this Hotel I was stuck having to bring my pet with me and I had already booked. I called and asked about the pet rate and the rep didn't give me any problems and added my pet to the trip. This is my chosen place of stay everytime I visit this city. I failed to mention the continental breakfast was also nice. My husband and I are coffee drinkers and they always have fresh coffee available 24/7.More</t>
   </si>
   <si>
+    <t>kglen1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r35601093-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -542,6 +587,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>SeeSee14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r22658717-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -560,6 +608,9 @@
     <t>December 2008</t>
   </si>
   <si>
+    <t>suzyqtx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r17009322-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -579,6 +630,9 @@
   </si>
   <si>
     <t>5 of us stayed at the Holiday Inn Express in Mansfield for 2 nights.  A golf tournament was the main reason for going.The hotel is nice and clean, although there was a ceiling leak in the lobby.  The rooms are nice and clean, not to mention spacious.  There were 2 queen beds and a small sleeper sofa.The pool is indoors, and was nice, but a little cold to stay in it long.  Check in went smooth.  The breakfast offered each morning had both hot and cold items.  The only thing missing each morning was any fresh fruit.  There was none!  We would definitely stay here again if we are in the area.More</t>
+  </si>
+  <si>
+    <t>kkbenton</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r15376570-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
@@ -608,6 +662,9 @@
 Breakfast was pretty much run of the mill if you stay at places like this frequently - some fresh fruit and canned peaches, yogurt, a few...I pick Holiday Inn Express frequently for 2 reasons - they have one of the best frequent stay programs of any chain, and they have done a great job with their newer hotels.  The mansfield HIE is one of these - probably built in the last year if not the last few months.  They have the upgraded beds and bedding, flat screen TVs, granite in the bathrooms.  I have paid way more for rooms that weren't this nice.  Also - the front of the hotel looks onto 287, but the back faces a quiet yard and wooded area, which makes for a peaceful view.  I think there are train tracks back there as I heard a train once, but not at night.If you are in the HI Priority Club, you will receive a small gift at almost every stay (all but 1 for me.)  No exception here - a gift bag with bottled water, microwave popcorn, and some crackers.   I can always use the bottled water.They have one of the nicest indoor pool areas I have seen at this type of hotel - instead of plain concrete, its been made to look like stone all around, and has a raised hot tub with a waterfall.  Wish I had brought my bathing suit!Breakfast was pretty much run of the mill if you stay at places like this frequently - some fresh fruit and canned peaches, yogurt, a few hot items - biscuits, scrambled eggs.  Its reasonable, free, not outstanding.Basically, for the money (something like 110/night) you can't beat the room quality.More</t>
   </si>
   <si>
+    <t>BBGCR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r579682287-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -638,6 +695,9 @@
     <t>Older hotel that's either being repaired or remodeled. Cheap construction and you can hear people next to you when they walk around. The typical boom, boom, boom of heavy footsteps. Looks like a construction zone inside and out. You'll get blasted by freight train horns all hours of the day and night. Never saw the railroad tracks, but you'll definitely hear the freight trains. Lots of rednecks and construction workers. Smoking area is right outside the front door - so each evening you're usually greeted with a cloud of second hand smoke to walk through. Parking situation is bad as well. Do yourself a favor and look elsewhere.More</t>
   </si>
   <si>
+    <t>TravelingDivaOne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r547057837-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -665,6 +725,9 @@
     <t>We stayed here for four nights while in town for a vow renewal ceremony. This was the hotel selected by the couple for their out of town guests. It was a good location if you're staying mostly in Mansfield. Close to highway if you're going to Dallas. The hotel itself is located on a one way street, so it isn't that easy to access. Several food and store options are nearby. The hotel itself was small, but adequate and accommodating. All of the staff I encountered was friendly and attentive. When we arrived, we were surprised they were offering dinner in the dining area. Tostadas complete with the optional fixins, and drinks(pop, beer, wine, and sangria) were offered. Our room was large and clean, and included a refrigerator, microwave, and Keurig. The bathroom was a nice size as well. The breakfast provided was enough to get the day started. It was more than a continental, but not a full breakfast buffet. There were plenty of cold and hot options. The pancake machine was pretty neat. I thought the fitness room was better than expected. Overall, it was a good stay.More</t>
   </si>
   <si>
+    <t>GARY E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r532930588-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -686,6 +749,9 @@
     <t>Stayed here for one night while on business. It was the average older hotel. They had a nice evening reception. Getting to the hotel was hard to get too you have to be on the interstate my google maps did not get me there. No restaurants adjacent to the property they are a exit north after the famous Texas turn around feeder road system.More</t>
   </si>
   <si>
+    <t>Crystal T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r487327727-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -711,6 +777,9 @@
   </si>
   <si>
     <t>Ac didn't work in the first room. They moved us right away.  New room smelled like weed big time but it was freezing and I was tired so I went with it.  Housekeeping needs to be retrained.  Hair on sheets and shower curtain. This is the first hotel I have ever been to that had real lights and a ceiling fan!  Hot tub was great but the pool was pretty cold.  Breakfast was good but stay away from the biscuits because they are rock hard! TV in the room is pretty small and hard to see.  Lobby area is clean and desk clerk was friendly and helpful.  He said they serve dinner on Tuesday and Wednesday night.  (Tuesday was pulled pork Wednesday lasagna) Hotel is easy to get to with tons of food places around it.  More</t>
+  </si>
+  <si>
+    <t>Michele C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r474311263-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
@@ -1242,43 +1311,47 @@
       <c r="A2" t="n">
         <v>56665</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>22080</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1294,56 +1367,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56665</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156005</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1357,7 +1434,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1370,37 +1447,37 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1418,41 +1495,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56665</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>156006</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -1471,50 +1552,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56665</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>16147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1530,56 +1615,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56665</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156007</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1591,56 +1680,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56665</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>21893</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1656,56 +1749,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56665</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>105342</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1723,56 +1820,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56665</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>154961</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1790,56 +1891,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56665</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136571</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1857,56 +1962,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56665</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>95382</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1928,56 +2037,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56665</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1989,56 +2102,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56665</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>6587</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2060,56 +2177,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56665</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156009</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2131,56 +2252,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56665</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156010</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2202,56 +2327,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56665</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156011</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2275,50 +2404,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56665</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2340,50 +2473,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56665</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2407,50 +2544,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56665</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156014</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2474,50 +2615,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56665</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>156015</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2529,56 +2674,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56665</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156016</v>
+      </c>
+      <c r="C22" t="s">
+        <v>223</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2594,56 +2743,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56665</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156017</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2655,56 +2808,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X23" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56665</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>26334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2716,56 +2873,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56665</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>22886</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2777,13 +2938,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X25" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_378.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_378.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>STR#</t>
   </si>
@@ -147,19 +147,352 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Cheri H</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r579682287-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>56225</t>
+  </si>
+  <si>
+    <t>676450</t>
+  </si>
+  <si>
+    <t>579682287</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Skip this hotel and look for something else...</t>
+  </si>
+  <si>
+    <t>Older hotel that's either being repaired or remodeled. Cheap construction and you can hear people next to you when they walk around. The typical boom, boom, boom of heavy footsteps. Looks like a construction zone inside and out. You'll get blasted by freight train horns all hours of the day and night. Never saw the railroad tracks, but you'll definitely hear the freight trains. Lots of rednecks and construction workers. Smoking area is right outside the front door - so each evening you're usually greeted with a cloud of second hand smoke to walk through. Parking situation is bad as well. Do yourself a favor and look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Daniel R, Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Older hotel that's either being repaired or remodeled. Cheap construction and you can hear people next to you when they walk around. The typical boom, boom, boom of heavy footsteps. Looks like a construction zone inside and out. You'll get blasted by freight train horns all hours of the day and night. Never saw the railroad tracks, but you'll definitely hear the freight trains. Lots of rednecks and construction workers. Smoking area is right outside the front door - so each evening you're usually greeted with a cloud of second hand smoke to walk through. Parking situation is bad as well. Do yourself a favor and look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r547057837-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>547057837</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff and a comfortable stay</t>
+  </si>
+  <si>
+    <t>We stayed here for four nights while in town for a vow renewal ceremony. This was the hotel selected by the couple for their out of town guests. It was a good location if you're staying mostly in Mansfield. Close to highway if you're going to Dallas. The hotel itself is located on a one way street, so it isn't that easy to access. Several food and store options are nearby. The hotel itself was small, but adequate and accommodating. All of the staff I encountered was friendly and attentive. When we arrived, we were surprised they were offering dinner in the dining area. Tostadas complete with the optional fixins, and drinks(pop, beer, wine, and sangria) were offered. Our room was large and clean, and included a refrigerator, microwave, and Keurig. The bathroom was a nice size as well. The breakfast provided was enough to get the day started. It was more than a continental, but not a full breakfast buffet. There were plenty of cold and hot options. The pancake machine was pretty neat. I thought the fitness room was better than expected. Overall, it was a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Daniel R, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for four nights while in town for a vow renewal ceremony. This was the hotel selected by the couple for their out of town guests. It was a good location if you're staying mostly in Mansfield. Close to highway if you're going to Dallas. The hotel itself is located on a one way street, so it isn't that easy to access. Several food and store options are nearby. The hotel itself was small, but adequate and accommodating. All of the staff I encountered was friendly and attentive. When we arrived, we were surprised they were offering dinner in the dining area. Tostadas complete with the optional fixins, and drinks(pop, beer, wine, and sangria) were offered. Our room was large and clean, and included a refrigerator, microwave, and Keurig. The bathroom was a nice size as well. The breakfast provided was enough to get the day started. It was more than a continental, but not a full breakfast buffet. There were plenty of cold and hot options. The pancake machine was pretty neat. I thought the fitness room was better than expected. Overall, it was a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r532930588-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>532930588</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off the road </t>
+  </si>
+  <si>
+    <t>Stayed here for one night while on business. It was the average older hotel. They had a nice evening reception. Getting to the hotel was hard to get too you have to be on the interstate my google maps did not get me there. No restaurants adjacent to the property they are a exit north after the famous Texas turn around feeder road system.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stayed here for one night while on business. It was the average older hotel. They had a nice evening reception. Getting to the hotel was hard to get too you have to be on the interstate my google maps did not get me there. No restaurants adjacent to the property they are a exit north after the famous Texas turn around feeder road system.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r487327727-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>487327727</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Ac didn't work in the first room. They moved us right away.  New room smelled like weed big time but it was freezing and I was tired so I went with it.  Housekeeping needs to be retrained.  Hair on sheets and shower curtain. This is the first hotel I have ever been to that had real lights and a ceiling fan!  Hot tub was great but the pool was pretty cold.  Breakfast was good but stay away from the biscuits because they are rock hard! TV in the room is pretty small and hard to see.  Lobby area is clean and desk clerk was friendly and helpful.  He said they serve dinner on Tuesday and Wednesday night.  (Tuesday was pulled pork Wednesday lasagna) Hotel is easy to get to with tons of food places around it.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Ac didn't work in the first room. They moved us right away.  New room smelled like weed big time but it was freezing and I was tired so I went with it.  Housekeeping needs to be retrained.  Hair on sheets and shower curtain. This is the first hotel I have ever been to that had real lights and a ceiling fan!  Hot tub was great but the pool was pretty cold.  Breakfast was good but stay away from the biscuits because they are rock hard! TV in the room is pretty small and hard to see.  Lobby area is clean and desk clerk was friendly and helpful.  He said they serve dinner on Tuesday and Wednesday night.  (Tuesday was pulled pork Wednesday lasagna) Hotel is easy to get to with tons of food places around it.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r474311263-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>474311263</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Nice area, lots of shops and restaurants</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while visiting family. The staff was friendly and helpful. Housekeeping did a great job and I had fun practicing my Spanish. The breakfast area was clean and organized. The hotel was easily accessible.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while visiting family. The staff was friendly and helpful. Housekeeping did a great job and I had fun practicing my Spanish. The breakfast area was clean and organized. The hotel was easily accessible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r474221803-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>474221803</t>
+  </si>
+  <si>
+    <t>Traveking to Austin</t>
+  </si>
+  <si>
+    <t>Great Hotel, very secure, clean, room was very nice love the bed and pillows. Bathroom was clean, great large TV, Microwave and refrigerator. Friendly staff at check and out, great breakfast selectionsMoreShow less</t>
+  </si>
+  <si>
+    <t>Great Hotel, very secure, clean, room was very nice love the bed and pillows. Bathroom was clean, great large TV, Microwave and refrigerator. Friendly staff at check and out, great breakfast selectionsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r468317521-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>468317521</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Not up to HIE standards</t>
+  </si>
+  <si>
+    <t>We were driving through and stopped for the night. First sign - lobby was dirty and trash&amp; candy on the floor. Next we went up to the room and it smelled like smoke horribly! Toilet was not flushed and basically a dirty room. It was 1:30 am we were exhausted but went back down to ask for another room. They did move us to a "suite" aka handicap accessible, and the sheets were dirty hair in the pillow cases and had wet carpet in areas. We were too tired to deal with them again, so we just slept on top of the sheets and got up and had a not good breakfast! Coffee was burnt food was cold.  It was the worst HIE we have stayed in. Find another place!! I will be contacting corporate. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>We were driving through and stopped for the night. First sign - lobby was dirty and trash&amp; candy on the floor. Next we went up to the room and it smelled like smoke horribly! Toilet was not flushed and basically a dirty room. It was 1:30 am we were exhausted but went back down to ask for another room. They did move us to a "suite" aka handicap accessible, and the sheets were dirty hair in the pillow cases and had wet carpet in areas. We were too tired to deal with them again, so we just slept on top of the sheets and got up and had a not good breakfast! Coffee was burnt food was cold.  It was the worst HIE we have stayed in. Find another place!! I will be contacting corporate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r461301612-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>461301612</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Not as great as 2015</t>
+  </si>
+  <si>
+    <t>Things were not as good here as they were when we stayed in the fall of 2015.  First impressions matter.  Upon check in, the man (I failed to get his name) was not friendly at all.  Not one smile from him.  Went back to front desk later to ask if the a/c could be turned on in the swimming pool room.  It was very hot in the room.  He told me the a/c was on and that I could open the door going to the outside.  No smiles or even a hint of friendliness once again.  The room with the indoor pool was uncomfortably hot.  This was not the case in 2015.  We chose to stay here because the pool is very nice.  Disappointment this visit.  Our room was clean and roomy.  Beds comfy.  Both firm and soft pillows on beds. The Keurig in the room was nice to have.  The lock on the door to the bathroom didn't work.  The lock on the entry door was difficult to work as it didn't align with the part on the door jam the lock slides into.  My husband had to finagle it to get it to finally lock.  Had problems with the a/c in the room, also.  Also, the mini fridge was turned off.Upon checkout, someone else was on staff at the front desk. Bob.  Very nice and very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Things were not as good here as they were when we stayed in the fall of 2015.  First impressions matter.  Upon check in, the man (I failed to get his name) was not friendly at all.  Not one smile from him.  Went back to front desk later to ask if the a/c could be turned on in the swimming pool room.  It was very hot in the room.  He told me the a/c was on and that I could open the door going to the outside.  No smiles or even a hint of friendliness once again.  The room with the indoor pool was uncomfortably hot.  This was not the case in 2015.  We chose to stay here because the pool is very nice.  Disappointment this visit.  Our room was clean and roomy.  Beds comfy.  Both firm and soft pillows on beds. The Keurig in the room was nice to have.  The lock on the door to the bathroom didn't work.  The lock on the entry door was difficult to work as it didn't align with the part on the door jam the lock slides into.  My husband had to finagle it to get it to finally lock.  Had problems with the a/c in the room, also.  Also, the mini fridge was turned off.Upon checkout, someone else was on staff at the front desk. Bob.  Very nice and very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r455074536-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>455074536</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Clean room and quiet</t>
+  </si>
+  <si>
+    <t>Nice place to stay we had no complaints about the room or facilities.  Breakfast was fine.  Close to many places to eat and easy in and out access.  Detours were everywhere but appears that the work is coming to a completion soon.  Will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice place to stay we had no complaints about the room or facilities.  Breakfast was fine.  Close to many places to eat and easy in and out access.  Detours were everywhere but appears that the work is coming to a completion soon.  Will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r453113454-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>453113454</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>This location is always clean.  The rooms a nice and beds are comfortable. Staff is very friendly and accommodating.  Breakfast is also good with several choices of food depending on what you like.  Excellent value.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This location is always clean.  The rooms a nice and beds are comfortable. Staff is very friendly and accommodating.  Breakfast is also good with several choices of food depending on what you like.  Excellent value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r419601644-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>419601644</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>One good thing was the bathroom lighting.  This property is adequate at best.</t>
+  </si>
+  <si>
+    <t>I slept well one out of three nights here.  Noise from plumbing, adjacent rooms, and the morning Angelus bell on a nearby church.  Then there was the jet-engine loud A/C unit - no adjustment of fan speed  just on or off (or else I could have used it to mask the other noises).The food we had was of poor quality - i.e., "creamer" touting "no topical oils."  And what was the "bacon" made out of?  The "coffee" was ???Just not my kind of place, though staff was helpful - on one hand.  On the other, room was not made up till dinner time one night.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r413256305-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>413256305</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>While checking in to this hotel, I was helped tremendously. LaKreshia was able to upgrade my room to a suite, since there were 3 of us. I was very grateful as I was coming to visit a friend, my boyfriend was attending an air gun show, and we had my mother with me. She likes different television shows and room temperatures than we do, and this hotel was very accommodating! We also enjoyed the spa tub, the pool, and the breakfasts both days we were there. Looking forward to our next trip!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r406812022-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>406812022</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>I never seem to get a good night's sleep here</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a few times now, and I always seem to have the same problem - I can't get a good night's sleep. The beds and pillows are just not comfortable. I'm not sure why, but all the pillows seem to be overstuffed and lumpy. Also, the air conditioning units seem to be erratic. It's nearly impossible to maintain a comfortable temperature in your room over the course of the night.Although the hotel is relatively clean and the hotel staff is friendly, what you are truly paying for with a hotel is a good night's sleep. Since this hotel can't deliver the basics of what a hotel should, I can't recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a few times now, and I always seem to have the same problem - I can't get a good night's sleep. The beds and pillows are just not comfortable. I'm not sure why, but all the pillows seem to be overstuffed and lumpy. Also, the air conditioning units seem to be erratic. It's nearly impossible to maintain a comfortable temperature in your room over the course of the night.Although the hotel is relatively clean and the hotel staff is friendly, what you are truly paying for with a hotel is a good night's sleep. Since this hotel can't deliver the basics of what a hotel should, I can't recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r390462589-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>390462589</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>Road sign was a bit tricky as I drive down the exit ramp(wrong way) but made it ok. Nice hotel and upon check-in my name was posted on a welcome board...nice touch. Upon entering my room it had not been cleaned but I was able to obtain another room quickly.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r389115026-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>389115026</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Long term stay</t>
+  </si>
+  <si>
+    <t>This is a decent holiday inn. We stayed for a month while our house completed construction.  The staff was very friendly and accommodating.  The breakfast was consistent. Two nights per week they offer a dinner and happy hour that is included in the price. That was a nice touch. They usually have cookies in the afternoon at there emotion desk and they always have coffee and hot water for tea available all day.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r368005651-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
-  </si>
-  <si>
-    <t>56225</t>
-  </si>
-  <si>
-    <t>676450</t>
   </si>
   <si>
     <t>368005651</t>
@@ -178,9 +511,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded May 13, 2016</t>
   </si>
   <si>
@@ -191,9 +521,6 @@
 I originally booked in Mansfield because they had an indoor pool and it was March. Hubby and I were in Texas for some emergency medical care, so the room was very important. I made a booking for a room with a roll-in shower. All seemed well when we settled in...until night came. The room was at the very end of the hallway and the exit door slammed shut with a horrendous BANG every time someone entered or exited ...which was often. I don't know the proper name, but why couldn't they invest a few bucks in one of those little door devices that slows the closing so that this doesn't happen? To add insult to injury, there were several dogs in the room across from us who decided to practice for their operatic debut. It didn't help when one of the dogs went missing and the owners were right outside our window, late at night, yelling for its return. When I saw the clerk, Bob, he was great. He apologized for the inconvenience and said we could change rooms. Obviously, we chose to wait until the next morning. That's when thing truly went downhill. The morning/day clerk, Daniel, had all of the enthusiasm of a dry mop, but he did change our room. Well, it...This is a hard review to write. Normaly, we've had good - great experiences with this chain, but this particular hotel was a let down.I originally booked in Mansfield because they had an indoor pool and it was March. Hubby and I were in Texas for some emergency medical care, so the room was very important. I made a booking for a room with a roll-in shower. All seemed well when we settled in...until night came. The room was at the very end of the hallway and the exit door slammed shut with a horrendous BANG every time someone entered or exited ...which was often. I don't know the proper name, but why couldn't they invest a few bucks in one of those little door devices that slows the closing so that this doesn't happen? To add insult to injury, there were several dogs in the room across from us who decided to practice for their operatic debut. It didn't help when one of the dogs went missing and the owners were right outside our window, late at night, yelling for its return. When I saw the clerk, Bob, he was great. He apologized for the inconvenience and said we could change rooms. Obviously, we chose to wait until the next morning. That's when thing truly went downhill. The morning/day clerk, Daniel, had all of the enthusiasm of a dry mop, but he did change our room. Well, it wasn't the same type, but we were stuck. So, my amputee husband had to do a balancing act on the edge of a tub, holding onto the bars. The only reason he was able to get in and out was because he just happened to bring along a plastic shelf for tubs...not something a person ordinarily carries in his suitcase.Shortly after settling in, we discovered the TV wasn't receiving the cable signal. Back down I go to the front desk, only to be told by the dry mop that I needed to hit the HDMI button, etc, since it was a new TV. Well, we tried, but we couldn't get it working. Dry mop finally sent a maid who did. We went out for a meal and when we came back...same problem. Hubby asked for the TV to be changed and dry mop said it couldn't be done and that the TV was always like that. Ummmm...he told me it was new! Well, now we had another problem...the fridge/freezer door wouldn't stay closed. Down I went again. Fortunately, the maintenance lady had overheard the TV conversation and made arrangements for both the TV and fridge freezer to be replaced.Pros:  --Bob, evening clerk, was a great example of customer service. He never failed to greet guests when they passed by.--The maintenance lady was amazing! She seemed to be in 1001 places at the same time and constantly checked to make sure the hot tub was functioning okay whenever she passed by and someone was using it. She took care of the problems we had, quickly and efficiently. --The pool and hot tub were kept at comfortsble temperatures. I really enjoyed my swims there.--The breakfast was hot, fresh and plentiful. The ladies who ran it did a great job. The area was always clean.Cons: -- Daniel, the day clerk, needs to take a refresher course on customer service. While he wasn't surly, he wasn't far from it. Sorry, but an improperly working TV, fridge, serious noise levels and non-existent WiFi signals were not caused by us, the CUSTOMERS. --Our accessible handicap room was inexcusably noisy. It felt like punishment.--No WiFi signal in the first room. --Having to request working items in our room (TV, fridge/freezer). Why aren't these checked between guests?There are better options in the area.More</t>
   </si>
   <si>
-    <t>BixTex</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r366163373-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -212,9 +539,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I've actually stayed here many times in the past &amp; recently this hotel made the decision to become Gun Free by posting both a 30.06 &amp; 30.07 sign on the door. However, they do not have any form of on site security at the hotel either. For a business traveler who is on the road a lot this does not set well for me. I realize they have a right to do this just as zi have a right to no longer stay here as well. I had booked for 3 days but, moved to another hotel near by after the first night. I advised the hotel staff as to my decision as well. If a Gun Free Zone Hotel suites you, it's a good hotel for you.More</t>
   </si>
   <si>
@@ -233,9 +557,6 @@
     <t>I loved my 1 night stay here. Bob at the front desk was incredibly helpful. Everything was clean, the hotel was easy to get to. My room had everything I needed. I felt like I could relax. I would highly recommend this hotel.</t>
   </si>
   <si>
-    <t>sucaso</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r357187341-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -251,9 +572,6 @@
     <t xml:space="preserve">We were only here for a few hours, but we slept comfortably after driving 14 hours! The room was clean and spacious, and the customer service was great. We didn't try the breakfast, but it smelled good. </t>
   </si>
   <si>
-    <t>Amy P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r338468000-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -281,9 +599,6 @@
     <t>Manilo the manager was great!! Katie checked us &amp; it was easy &amp; FAST!! Breakfast was very good!! Clean rooms..quiet stay!! Definitely will stay again!! Close to the AT &amp; T stadium! Price was great!! GREAT PLACE TO STAY..Local resturants were great!! Staff was awesome..More</t>
   </si>
   <si>
-    <t>Nama5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r336088827-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -302,9 +617,6 @@
     <t>Facility is easy to find off I 35. Queen beds are queen size, comfy, pool is cool and hot tub is hot. Everything is clean and in good repair. Breakfast was a treat we really appreciated. Staff also was very courteous and helpful both with check in and with questions of which restaurants deliver. More</t>
   </si>
   <si>
-    <t>Ken C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r332540403-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -329,9 +641,6 @@
     <t>We had an overnight trip from Austin, Tx, to Mansfield to watch our daughter-in-law graduate at University of North Texas.  The hotel appears to be new construction, so there were no issues with the building or room.  There does appear to be a staffing problem, as they only had one person on duty (and the hotel was full), so we had a bit of a wait to get checked in.We get our room keys and head up to grab a quick nap.  And of course, the electronic door key didn't work.  So, it's back downstairs to get that fixed.  And here's a tip for anyone working the desk at a hotel.  If a guest says their room key doesn't work, the last thing we want to hear is "wow...it's supposed to work".  Really?  You don't think we realize that?Our room was in the front of the hotel, facing the highway.  Road noise was more than I would have expected with new construction.We grabbed breakfast there the next morning before heading out.  The stock of hot items (eggs, meat) was pretty low.  Breads were nothing to write home about.Next time we go back to Mansfield, we'll probably check out the Best Western located just down the road.More</t>
   </si>
   <si>
-    <t>Kyle N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r332285414-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -347,15 +656,9 @@
     <t>This is a typical Holiday Inn Express property, fairly easy to find, clean, large rooms, pleasant staff.  Within easy driving distance of restaurants.  Free wifi and all amenities you would expect in such a property.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>This is a typical Holiday Inn Express property, fairly easy to find, clean, large rooms, pleasant staff.  Within easy driving distance of restaurants.  Free wifi and all amenities you would expect in such a property.More</t>
   </si>
   <si>
-    <t>breezyww</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r331483131-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -383,9 +686,6 @@
     <t>We had 3 kids with us this trip and decided to spring for the 2-room suite.  Side note, we were unable to use our points toward this room, we are finding this more often with HI.  We mostly liked it, It was very spacious with lots of room for everyone.  What we didn't like; the Jack-n-Jill bathroom set up, the worn out and nasty pull out couch (twin size), the large carpet stains.  All rooms should be well kept and updated, but the suites should be even more so. The rooms also need better sound proofing, we could hear our neighbors above us every foot steps, thankfully they went to bed early.  The breakfast was standard HI, there weren't enough tables and we ate our food on one of the couches.More</t>
   </si>
   <si>
-    <t>maggie5arkansas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r320523536-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -413,7 +713,257 @@
     <t>Our room was clean.  The pool and hot tub was very nice and clean!  Very pretty also!  My husband discovered after we got back home that he had left his Kindle in our room.  He immediately called and housekeeping had turned it in.  How nice to have honest people!  He gave his mailing and payment information and they shipped it to us!  Breakfast was very good--pancakes, scrambled eggs, sausage, cereals, yogurts,fruit, boiled eggs, coffee and juices.More</t>
   </si>
   <si>
-    <t>Tess T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r319932925-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>319932925</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>What is wrong with IHG?</t>
+  </si>
+  <si>
+    <t>For the second time this year (first time was at a Holiday Inn Express in Brownwood, Texas) My reservation was fowled up. At Mansfield I had reserved 1 king suite and 1 Kind Suite wheelchair accessible room. at check in I was told I had reserved 2 king suites. The lady then looked at the computer again and said that indeed my reservation was for 1 king and 1 king accessible room. She told me their king accessible room was occupied. I ask who gave the room away. I was told the room was reserved for the party in the room 2 weeks earlier. I expressed my displeasure because my reservation was made over 2 month earlier. They had a 2 queens accessible which we had to accept. I went down later to attempt to find out who gave my reservation away and was then told the room had been occupied for the last 45 days. Not buying the story. The reservation in Brownwood was fowled up just like this one was (that was February this year) My concern is when you make a reservation well in advance for a specific room, your reservation is accepted but when you arrive they try to push off something else on you then tell you you reserved the room that way. I will be speaking with IHG Monday morning but this is getting bad. I've spent over 100 nights this year in IHG...For the second time this year (first time was at a Holiday Inn Express in Brownwood, Texas) My reservation was fowled up. At Mansfield I had reserved 1 king suite and 1 Kind Suite wheelchair accessible room. at check in I was told I had reserved 2 king suites. The lady then looked at the computer again and said that indeed my reservation was for 1 king and 1 king accessible room. She told me their king accessible room was occupied. I ask who gave the room away. I was told the room was reserved for the party in the room 2 weeks earlier. I expressed my displeasure because my reservation was made over 2 month earlier. They had a 2 queens accessible which we had to accept. I went down later to attempt to find out who gave my reservation away and was then told the room had been occupied for the last 45 days. Not buying the story. The reservation in Brownwood was fowled up just like this one was (that was February this year) My concern is when you make a reservation well in advance for a specific room, your reservation is accepted but when you arrive they try to push off something else on you then tell you you reserved the room that way. I will be speaking with IHG Monday morning but this is getting bad. I've spent over 100 nights this year in IHG properties and to get run around like this is un acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>For the second time this year (first time was at a Holiday Inn Express in Brownwood, Texas) My reservation was fowled up. At Mansfield I had reserved 1 king suite and 1 Kind Suite wheelchair accessible room. at check in I was told I had reserved 2 king suites. The lady then looked at the computer again and said that indeed my reservation was for 1 king and 1 king accessible room. She told me their king accessible room was occupied. I ask who gave the room away. I was told the room was reserved for the party in the room 2 weeks earlier. I expressed my displeasure because my reservation was made over 2 month earlier. They had a 2 queens accessible which we had to accept. I went down later to attempt to find out who gave my reservation away and was then told the room had been occupied for the last 45 days. Not buying the story. The reservation in Brownwood was fowled up just like this one was (that was February this year) My concern is when you make a reservation well in advance for a specific room, your reservation is accepted but when you arrive they try to push off something else on you then tell you you reserved the room that way. I will be speaking with IHG Monday morning but this is getting bad. I've spent over 100 nights this year in IHG...For the second time this year (first time was at a Holiday Inn Express in Brownwood, Texas) My reservation was fowled up. At Mansfield I had reserved 1 king suite and 1 Kind Suite wheelchair accessible room. at check in I was told I had reserved 2 king suites. The lady then looked at the computer again and said that indeed my reservation was for 1 king and 1 king accessible room. She told me their king accessible room was occupied. I ask who gave the room away. I was told the room was reserved for the party in the room 2 weeks earlier. I expressed my displeasure because my reservation was made over 2 month earlier. They had a 2 queens accessible which we had to accept. I went down later to attempt to find out who gave my reservation away and was then told the room had been occupied for the last 45 days. Not buying the story. The reservation in Brownwood was fowled up just like this one was (that was February this year) My concern is when you make a reservation well in advance for a specific room, your reservation is accepted but when you arrive they try to push off something else on you then tell you you reserved the room that way. I will be speaking with IHG Monday morning but this is getting bad. I've spent over 100 nights this year in IHG properties and to get run around like this is un acceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r314147854-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>314147854</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Room on the back of the hotel was quiet for the our 3-night stay, even though there were youth sports teams staying in the rooms on our floor.  Staff was pleasant and helpful during our visit.  Breakfast was filling and dining area was clean. Pets are permitted in the hotel and we noticed a well-behaved dog and owner sitting on the couch located in the dining area. Business center, pool, and exercise facility are convenient on the 1st floor.  The most difficult part was initially trying to access the hotel, as the only way to get to the hotel is utilizing the southbound service road.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Room on the back of the hotel was quiet for the our 3-night stay, even though there were youth sports teams staying in the rooms on our floor.  Staff was pleasant and helpful during our visit.  Breakfast was filling and dining area was clean. Pets are permitted in the hotel and we noticed a well-behaved dog and owner sitting on the couch located in the dining area. Business center, pool, and exercise facility are convenient on the 1st floor.  The most difficult part was initially trying to access the hotel, as the only way to get to the hotel is utilizing the southbound service road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r302936754-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>302936754</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Budget Price, Quality Service</t>
+  </si>
+  <si>
+    <t>Stayed for 1 night,  was throughly impressed. The room was budget price with a high quality feel, room spotless and decor modern. In the bathroom  powerful shower which was lovely.Breakfast was of good quality, for a cheap 1 night stay can not recommended higherMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 1 night,  was throughly impressed. The room was budget price with a high quality feel, room spotless and decor modern. In the bathroom  powerful shower which was lovely.Breakfast was of good quality, for a cheap 1 night stay can not recommended higherMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r283508659-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>283508659</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Excellent facilities and service</t>
+  </si>
+  <si>
+    <t>I really enjoyed my brief stay here - very convenient, with wonderful facilities and food and service.  Exercise room and many other features, not far from shopping and a variet of restaurants.  Highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>I really enjoyed my brief stay here - very convenient, with wonderful facilities and food and service.  Exercise room and many other features, not far from shopping and a variet of restaurants.  Highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r261178969-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>261178969</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean room, clean facilities </t>
+  </si>
+  <si>
+    <t>This is my second visit and it was better than my first visit. We stayed for two nights for spring break and the kids loved the pool area. I mentioned on my last stay that the eggs were watery in the pan and I was pleased to see that the eggs were now perfect and fluffy without water in the pan. It's the small details that add up to a great customer experience and it proves that this place does use customers feedback to improve the quality. I do see some opportunities to get better such as the cleaning crew vacuuming and mopping before breakfast time ends. The first morning I was awakened by a very loud vacuum cleaner, I had planned to sleep a little longer but got on up and ate breakfast. The next morning the same scenario happened with the vacuum cleaner. Then as my son stepped into the elevator he immediately hit the ground then I went in to pick him up and I almost fell. It turns out that they just mopped the elevator and it was soapy and very slick. We did not see any warning cone or anything in the elevator. I feel that maybe if the cleaning crew would wait until after the busiest time in the morning to do the excellent job that they do, it would be better in my opinion.
+That was the only events that distracted from our...This is my second visit and it was better than my first visit. We stayed for two nights for spring break and the kids loved the pool area. I mentioned on my last stay that the eggs were watery in the pan and I was pleased to see that the eggs were now perfect and fluffy without water in the pan. It's the small details that add up to a great customer experience and it proves that this place does use customers feedback to improve the quality. I do see some opportunities to get better such as the cleaning crew vacuuming and mopping before breakfast time ends. The first morning I was awakened by a very loud vacuum cleaner, I had planned to sleep a little longer but got on up and ate breakfast. The next morning the same scenario happened with the vacuum cleaner. Then as my son stepped into the elevator he immediately hit the ground then I went in to pick him up and I almost fell. It turns out that they just mopped the elevator and it was soapy and very slick. We did not see any warning cone or anything in the elevator. I feel that maybe if the cleaning crew would wait until after the busiest time in the morning to do the excellent job that they do, it would be better in my opinion.That was the only events that distracted from our stay, other than that it was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>MSM689, General Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>This is my second visit and it was better than my first visit. We stayed for two nights for spring break and the kids loved the pool area. I mentioned on my last stay that the eggs were watery in the pan and I was pleased to see that the eggs were now perfect and fluffy without water in the pan. It's the small details that add up to a great customer experience and it proves that this place does use customers feedback to improve the quality. I do see some opportunities to get better such as the cleaning crew vacuuming and mopping before breakfast time ends. The first morning I was awakened by a very loud vacuum cleaner, I had planned to sleep a little longer but got on up and ate breakfast. The next morning the same scenario happened with the vacuum cleaner. Then as my son stepped into the elevator he immediately hit the ground then I went in to pick him up and I almost fell. It turns out that they just mopped the elevator and it was soapy and very slick. We did not see any warning cone or anything in the elevator. I feel that maybe if the cleaning crew would wait until after the busiest time in the morning to do the excellent job that they do, it would be better in my opinion.
+That was the only events that distracted from our...This is my second visit and it was better than my first visit. We stayed for two nights for spring break and the kids loved the pool area. I mentioned on my last stay that the eggs were watery in the pan and I was pleased to see that the eggs were now perfect and fluffy without water in the pan. It's the small details that add up to a great customer experience and it proves that this place does use customers feedback to improve the quality. I do see some opportunities to get better such as the cleaning crew vacuuming and mopping before breakfast time ends. The first morning I was awakened by a very loud vacuum cleaner, I had planned to sleep a little longer but got on up and ate breakfast. The next morning the same scenario happened with the vacuum cleaner. Then as my son stepped into the elevator he immediately hit the ground then I went in to pick him up and I almost fell. It turns out that they just mopped the elevator and it was soapy and very slick. We did not see any warning cone or anything in the elevator. I feel that maybe if the cleaning crew would wait until after the busiest time in the morning to do the excellent job that they do, it would be better in my opinion.That was the only events that distracted from our stay, other than that it was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r230103057-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>230103057</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Great service and clean rooms!</t>
+  </si>
+  <si>
+    <t>We stayed here for a friend's wedding weekend in town. The rate we received was reduced and very reasonable for the rooms. Upon check-in, we were treated like we were the only guests in the hotel. The staff was very prompt and accommodating. There is not much in Mansfield but this location was within a mile of most restaurants and being right off the highway, it was easy to get around. The rooms were very large and seemed newly furnished. Definitely recommend this hotel if you need to stay in or near this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded September 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for a friend's wedding weekend in town. The rate we received was reduced and very reasonable for the rooms. Upon check-in, we were treated like we were the only guests in the hotel. The staff was very prompt and accommodating. There is not much in Mansfield but this location was within a mile of most restaurants and being right off the highway, it was easy to get around. The rooms were very large and seemed newly furnished. Definitely recommend this hotel if you need to stay in or near this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r226159089-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>226159089</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Few minor problems but they made it right.</t>
+  </si>
+  <si>
+    <t>We stayed one night in this Hotel.
+Upon checking in and loading the supplied luggage cart a metal end piece fell off as my son was pushing it through the lobby door and hit him on the top of the head. The front desk person didn't seem to concerned with my son crying.
+Probably a chance encounter but parents may want to make sure those end pieces are tight before letting the kids help push the cart.
+We got a really nice suite with two bedrooms and a fold out sleeper sofa. We had plenty of room and the AC worked great, comfy beds and quiet surroundings. Internet was pretty good also. I felt our vehicle was fairly secure in a well lit parking lot.
+Our other problem started when we set up the fold out sofa and after we put the sheets and comforter on bed. The kids noticed yellow stains on the white comforter and the stains had a foul odor to it too.
+We called the front desk and the woman brought up sheets and two thin blankets. I asked for another comforter to replace the soiled one and she said she didn't see one. She came back later with a clean comforter for us. :-)
+The breakfast was decent and warm. They had Sausage and Turkey sausage for meat, but I was looking for bacon. 
+I figure they would have bacon and sausage. The scrambled eggs...We stayed one night in this Hotel.Upon checking in and loading the supplied luggage cart a metal end piece fell off as my son was pushing it through the lobby door and hit him on the top of the head. The front desk person didn't seem to concerned with my son crying.Probably a chance encounter but parents may want to make sure those end pieces are tight before letting the kids help push the cart.We got a really nice suite with two bedrooms and a fold out sleeper sofa. We had plenty of room and the AC worked great, comfy beds and quiet surroundings. Internet was pretty good also. I felt our vehicle was fairly secure in a well lit parking lot.Our other problem started when we set up the fold out sofa and after we put the sheets and comforter on bed. The kids noticed yellow stains on the white comforter and the stains had a foul odor to it too.We called the front desk and the woman brought up sheets and two thin blankets. I asked for another comforter to replace the soiled one and she said she didn't see one. She came back later with a clean comforter for us. :-)The breakfast was decent and warm. They had Sausage and Turkey sausage for meat, but I was looking for bacon. I figure they would have bacon and sausage. The scrambled eggs had a lot of liquid in the pan when I scooped it out. I had to drain the eggs before I put in on my plate. Other than that it's pretty much a standard Holiday Inn express breakfast. The staff did not really go out of their way or have a great attitude about accommodating our needs as paying customers. They made things right for the most part but did not seem to happy about doing it. Maybe they are not happy about working on a holiday or morale is down.Great service and staff that is willing and eager to please and go the extra mile is where we like to go. MoreShow less</t>
+  </si>
+  <si>
+    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>We stayed one night in this Hotel.
+Upon checking in and loading the supplied luggage cart a metal end piece fell off as my son was pushing it through the lobby door and hit him on the top of the head. The front desk person didn't seem to concerned with my son crying.
+Probably a chance encounter but parents may want to make sure those end pieces are tight before letting the kids help push the cart.
+We got a really nice suite with two bedrooms and a fold out sleeper sofa. We had plenty of room and the AC worked great, comfy beds and quiet surroundings. Internet was pretty good also. I felt our vehicle was fairly secure in a well lit parking lot.
+Our other problem started when we set up the fold out sofa and after we put the sheets and comforter on bed. The kids noticed yellow stains on the white comforter and the stains had a foul odor to it too.
+We called the front desk and the woman brought up sheets and two thin blankets. I asked for another comforter to replace the soiled one and she said she didn't see one. She came back later with a clean comforter for us. :-)
+The breakfast was decent and warm. They had Sausage and Turkey sausage for meat, but I was looking for bacon. 
+I figure they would have bacon and sausage. The scrambled eggs...We stayed one night in this Hotel.Upon checking in and loading the supplied luggage cart a metal end piece fell off as my son was pushing it through the lobby door and hit him on the top of the head. The front desk person didn't seem to concerned with my son crying.Probably a chance encounter but parents may want to make sure those end pieces are tight before letting the kids help push the cart.We got a really nice suite with two bedrooms and a fold out sleeper sofa. We had plenty of room and the AC worked great, comfy beds and quiet surroundings. Internet was pretty good also. I felt our vehicle was fairly secure in a well lit parking lot.Our other problem started when we set up the fold out sofa and after we put the sheets and comforter on bed. The kids noticed yellow stains on the white comforter and the stains had a foul odor to it too.We called the front desk and the woman brought up sheets and two thin blankets. I asked for another comforter to replace the soiled one and she said she didn't see one. She came back later with a clean comforter for us. :-)The breakfast was decent and warm. They had Sausage and Turkey sausage for meat, but I was looking for bacon. I figure they would have bacon and sausage. The scrambled eggs had a lot of liquid in the pan when I scooped it out. I had to drain the eggs before I put in on my plate. Other than that it's pretty much a standard Holiday Inn express breakfast. The staff did not really go out of their way or have a great attitude about accommodating our needs as paying customers. They made things right for the most part but did not seem to happy about doing it. Maybe they are not happy about working on a holiday or morale is down.Great service and staff that is willing and eager to please and go the extra mile is where we like to go. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r222896023-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>222896023</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>GREAT Hotel, very nice accomidations</t>
+  </si>
+  <si>
+    <t>Just returned from a five night stay at this Holiday Inn Express.  I had a King Bed room (218) that had  a  nice little wet bar area with fridge/microwave/and little sink.  Had a single lounge chair w/footstool and a nice desk for work space.  Room was very nice, clean and modern.  Bathroom was spacious as well.  Breakfast room was one of nicest I have seen in this level of hotel with lots of good choices for food.  Pool area was small but sufficiant.  Staff was very friendly and accomidating.There were LOTS of choices for food just one or two exits up the road (would need car to access these areas).  I found this hotel to be very nice and modern and for our corporate rate of $89 per night, very reasonably priced.  For a Holiday Inn, it was exceptional and I would certainly stay here again for work in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Just returned from a five night stay at this Holiday Inn Express.  I had a King Bed room (218) that had  a  nice little wet bar area with fridge/microwave/and little sink.  Had a single lounge chair w/footstool and a nice desk for work space.  Room was very nice, clean and modern.  Bathroom was spacious as well.  Breakfast room was one of nicest I have seen in this level of hotel with lots of good choices for food.  Pool area was small but sufficiant.  Staff was very friendly and accomidating.There were LOTS of choices for food just one or two exits up the road (would need car to access these areas).  I found this hotel to be very nice and modern and for our corporate rate of $89 per night, very reasonably priced.  For a Holiday Inn, it was exceptional and I would certainly stay here again for work in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r210389881-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>210389881</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Not Pet Friendly</t>
+  </si>
+  <si>
+    <t>We recently drove from Indiana to Texas to see George Strait's last show. I booked this hotel because it claimed to be pet friendly (I called several times to make sure and told them of our plans). When we arrived we were given an additional piece of paper to sign. Upon reading it we couldn't leave our dog alone in the room (even though we brought a large crate). We couldn't even eat breakfast at the same time. Luckily I had the opportunity of finding great people that took care of our pup while we went to the show, and he was given great care there. Pets are not welcomed here! We have always stayed with Holiday Inn, but on our journey home we didn't. We found Drury Inn's and they did welcome our pet and us.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Kim C, Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded June 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2014</t>
+  </si>
+  <si>
+    <t>We recently drove from Indiana to Texas to see George Strait's last show. I booked this hotel because it claimed to be pet friendly (I called several times to make sure and told them of our plans). When we arrived we were given an additional piece of paper to sign. Upon reading it we couldn't leave our dog alone in the room (even though we brought a large crate). We couldn't even eat breakfast at the same time. Luckily I had the opportunity of finding great people that took care of our pup while we went to the show, and he was given great care there. Pets are not welcomed here! We have always stayed with Holiday Inn, but on our journey home we didn't. We found Drury Inn's and they did welcome our pet and us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r208850754-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>208850754</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Very clean hotel and with helpful staff!  Extended our checkout due to a baseball tournament.  Beds were comfy and free breakfast was delicious!  We gladly signed a noise and smoking agreement to guarantee we would not be disturbed and the entire hotel is non-smoking!5 starts!MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean hotel and with helpful staff!  Extended our checkout due to a baseball tournament.  Beds were comfy and free breakfast was delicious!  We gladly signed a noise and smoking agreement to guarantee we would not be disturbed and the entire hotel is non-smoking!5 starts!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r204595726-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
@@ -443,9 +993,6 @@
     <t>Beware - if you're traveling with your pet, DO NOT STAY HERE!  We were recently gifted with a puppy and because we travel a lot (especially in the Dallas area), we bring our mini-Schauzer pup with us.  In general, our puppy is well behaved but because it is the nature of their breed, they are very energetic and they bark.  Since he's traveled a lot with us, we are familiar with hotel pet rules and we never take him to "common areas" unless needed.  We also use the stairs and side doors to get in and out.  We stayed at this hotel because it is close to where my husband's company plant is.  Right from the beginning, I've noticed that the staff were not very welcoming to guests with pets.    This became very apparent when I needed to bring my pup with me to the lobby to change key cards because we had to extend our stay.  It was brief but she rudely reminded me that pets are not allowed in the lobby.  I gently told her that I was aware of that but I couldn't leave my puppy in the room because he makes a lot of noise and I didn't want to disturb other guests.  She made a big deal out of it.  For $20/day pet fee, this is not worth it (and to think we stayed here for 8 days)!!  We will never stay at this hotel...Beware - if you're traveling with your pet, DO NOT STAY HERE!  We were recently gifted with a puppy and because we travel a lot (especially in the Dallas area), we bring our mini-Schauzer pup with us.  In general, our puppy is well behaved but because it is the nature of their breed, they are very energetic and they bark.  Since he's traveled a lot with us, we are familiar with hotel pet rules and we never take him to "common areas" unless needed.  We also use the stairs and side doors to get in and out.  We stayed at this hotel because it is close to where my husband's company plant is.  Right from the beginning, I've noticed that the staff were not very welcoming to guests with pets.    This became very apparent when I needed to bring my pup with me to the lobby to change key cards because we had to extend our stay.  It was brief but she rudely reminded me that pets are not allowed in the lobby.  I gently told her that I was aware of that but I couldn't leave my puppy in the room because he makes a lot of noise and I didn't want to disturb other guests.  She made a big deal out of it.  For $20/day pet fee, this is not worth it (and to think we stayed here for 8 days)!!  We will never stay at this hotel ever again!!More</t>
   </si>
   <si>
-    <t>rickmcvinnie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r192809952-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -464,21 +1011,9 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Kim C, Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded June 16, 2014</t>
-  </si>
-  <si>
-    <t>Responded June 16, 2014</t>
-  </si>
-  <si>
     <t>We moved our kids to Mansfield Texas and stayed at the Holiday Inn Express. I've stayed at a number of Holiday Inn Expresses and this one has been the best so far. The rooms are spacious and fairly priced to the Dallas area. We had a problem with the toilet flushing so instead of waiting for a repair they had us move to another room equally as nice. I will stay here again when I come to visit my kids.More</t>
   </si>
   <si>
-    <t>Victoria M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r189373999-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -506,9 +1041,6 @@
     <t>We stayed at this Holiday Inn to attend a Cowboys game the stadium was fairly close and the hotel offers a shuttle to the game which is nice. The room was clean and the beds were very comfortable- slept great. There are a few shopping centers near by one with a Starbucks which was very important to us. The free breakfast the next day was good, love the cinnamon rolls and the sausage &amp;  eggs. They have a pancake maker and pretty good bagels and cream cheese as well as fresh fruit and a variety of yogurt and juice bar. I was very pleased with our stay. Great price also. The staff was very helpful and kind my son became very sick and they seemed genuinely concerned.  I was not aware of the hot tub and indoor pool if I had known we would have brought our suits.  Shower head was a rainfall shower head and water was very hot -loved itMore</t>
   </si>
   <si>
-    <t>JeffUru</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r176235527-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -536,9 +1068,6 @@
     <t>We stayed in Mansfield for 10 days to do some business and take some time off.  The staff were both friendly and helpful; the facilities were spotless, our room was a King Suite with fridge &amp; microwave.  The breakfast every morning was a complete meal, not coffee &amp; a roll.  The night we got there, there was a "Manager's Special" in the dining room; baked chicken, corn, drinks &amp; coffee.  It was free and really good.  Nice extra.  Thanks Jennifer, Nathan &amp; Kim!  Not sure if we'll pass through Mansfield again, but you made our stay pleasant!More</t>
   </si>
   <si>
-    <t>MrsVJB1973</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r152582093-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -566,7 +1095,306 @@
     <t>I absolutely love this property. My first initial stay I knew I would be back! The staff is always pleasant and the rooms are always clean! The bathrooms are always the first thing I check when I go into a Hotel and I've stayed at this location 3 times and everytime the bathroom especially the bottom, front, and sides of the toilet are immaculate! My second trip at this Hotel I was stuck having to bring my pet with me and I had already booked. I called and asked about the pet rate and the rep didn't give me any problems and added my pet to the trip. This is my chosen place of stay everytime I visit this city. I failed to mention the continental breakfast was also nice. My husband and I are coffee drinkers and they always have fresh coffee available 24/7.More</t>
   </si>
   <si>
-    <t>kglen1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r149809400-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>149809400</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, Convenient and Accomodating</t>
+  </si>
+  <si>
+    <t>The place was clean, the staff was very helpful, friendly, and accommodating. My sister and I, with her 2 month old infant son, came out for a family visit, and were place in room 225, with 1 King size bed. The bed was comfortable, room a really good size. I was concerned initially because our room was right next to the housekeeping area, but we never heard a peep from them, so that was fine. Breakfast was good- I am now obsessed with the auto-pancake making machine they had- would be awesome to have one at home! lol. The pool area, though we didn't use it, looked really nice, and everything seemed brand new. My sister went down and used the workout room everyday and said it was great, very clean and nice. We also used the coin operated laundry facility right near our room, and that worked out great since we had a newborn baby with us and needed to wash his blankets/clothes while visiting. Also, when we went down to use the business center to check in for our return flight home, the printer wasn't working, so the front desk girl was super nice and let my sister go behind the front desk and use the computer and it's printer there, even though I think she wasn't really supposed to- but in doing so she scored big points with us for sure. 
+When we checked out, they  had...The place was clean, the staff was very helpful, friendly, and accommodating. My sister and I, with her 2 month old infant son, came out for a family visit, and were place in room 225, with 1 King size bed. The bed was comfortable, room a really good size. I was concerned initially because our room was right next to the housekeeping area, but we never heard a peep from them, so that was fine. Breakfast was good- I am now obsessed with the auto-pancake making machine they had- would be awesome to have one at home! lol. The pool area, though we didn't use it, looked really nice, and everything seemed brand new. My sister went down and used the workout room everyday and said it was great, very clean and nice. We also used the coin operated laundry facility right near our room, and that worked out great since we had a newborn baby with us and needed to wash his blankets/clothes while visiting. Also, when we went down to use the business center to check in for our return flight home, the printer wasn't working, so the front desk girl was super nice and let my sister go behind the front desk and use the computer and it's printer there, even though I think she wasn't really supposed to- but in doing so she scored big points with us for sure. When we checked out, they  had a cute little travel bag/gift for us with a water, banana, cinnamon muffin, and moist towlette for us. That was  a nice touch. Overall, I researched a LOT of different hotels in the area for this visit. This place was a bit more than many of the other hotels I had researched, but I'm very happy with our experience overall.Just for feedback’s sake, the only negatives were pretty menial:  When making the reservation, I specifically asked for a room on the back side of the hotel, because I'd read reviews that said it was noisy on the front where the rooms face the freeway, but we were placed on the front side. We had to sleep with the fan on to mask the noise, but that worked fairly well. I just don't know why they didn't book us as requested- the lady at the front desk said there were only 14 rooms of the hotel being used, so I'm sure they had availability.  Additionally, the plumbing in  our bathroom sink got overwhelmed easily and didn't drain quickly when the water was turned on full blast, but no biggie, really. The only other weird thing was that the hotel sits on a one-way street, and when you take the exit that is closest to it, you can't get to the hotel, because you'd have to go the wrong way on the one way street. That was really annoying. So we had to go clear up to the next freeway exit, and then come back all the way to be able to enter the hotel's driveway.  Really not the most convenient, but again,  it all worked out, and we were still very pleased with our stay overall, and absolutely would stay there again without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>The place was clean, the staff was very helpful, friendly, and accommodating. My sister and I, with her 2 month old infant son, came out for a family visit, and were place in room 225, with 1 King size bed. The bed was comfortable, room a really good size. I was concerned initially because our room was right next to the housekeeping area, but we never heard a peep from them, so that was fine. Breakfast was good- I am now obsessed with the auto-pancake making machine they had- would be awesome to have one at home! lol. The pool area, though we didn't use it, looked really nice, and everything seemed brand new. My sister went down and used the workout room everyday and said it was great, very clean and nice. We also used the coin operated laundry facility right near our room, and that worked out great since we had a newborn baby with us and needed to wash his blankets/clothes while visiting. Also, when we went down to use the business center to check in for our return flight home, the printer wasn't working, so the front desk girl was super nice and let my sister go behind the front desk and use the computer and it's printer there, even though I think she wasn't really supposed to- but in doing so she scored big points with us for sure. 
+When we checked out, they  had...The place was clean, the staff was very helpful, friendly, and accommodating. My sister and I, with her 2 month old infant son, came out for a family visit, and were place in room 225, with 1 King size bed. The bed was comfortable, room a really good size. I was concerned initially because our room was right next to the housekeeping area, but we never heard a peep from them, so that was fine. Breakfast was good- I am now obsessed with the auto-pancake making machine they had- would be awesome to have one at home! lol. The pool area, though we didn't use it, looked really nice, and everything seemed brand new. My sister went down and used the workout room everyday and said it was great, very clean and nice. We also used the coin operated laundry facility right near our room, and that worked out great since we had a newborn baby with us and needed to wash his blankets/clothes while visiting. Also, when we went down to use the business center to check in for our return flight home, the printer wasn't working, so the front desk girl was super nice and let my sister go behind the front desk and use the computer and it's printer there, even though I think she wasn't really supposed to- but in doing so she scored big points with us for sure. When we checked out, they  had a cute little travel bag/gift for us with a water, banana, cinnamon muffin, and moist towlette for us. That was  a nice touch. Overall, I researched a LOT of different hotels in the area for this visit. This place was a bit more than many of the other hotels I had researched, but I'm very happy with our experience overall.Just for feedback’s sake, the only negatives were pretty menial:  When making the reservation, I specifically asked for a room on the back side of the hotel, because I'd read reviews that said it was noisy on the front where the rooms face the freeway, but we were placed on the front side. We had to sleep with the fan on to mask the noise, but that worked fairly well. I just don't know why they didn't book us as requested- the lady at the front desk said there were only 14 rooms of the hotel being used, so I'm sure they had availability.  Additionally, the plumbing in  our bathroom sink got overwhelmed easily and didn't drain quickly when the water was turned on full blast, but no biggie, really. The only other weird thing was that the hotel sits on a one-way street, and when you take the exit that is closest to it, you can't get to the hotel, because you'd have to go the wrong way on the one way street. That was really annoying. So we had to go clear up to the next freeway exit, and then come back all the way to be able to enter the hotel's driveway.  Really not the most convenient, but again,  it all worked out, and we were still very pleased with our stay overall, and absolutely would stay there again without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r140508432-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>140508432</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Liked our stay!</t>
+  </si>
+  <si>
+    <t>We wanted to check in before the game, so we called the hotel to see if they could get our room ready.  They were able to get us a room by the time we arrived at the hotel.  The rooms were clean and very comfortable.  Our kids really enjoyed the pool... Just couple of blocks from the hotel there is really neat restaurant called Suzy Q's.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Kim C, General Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>We wanted to check in before the game, so we called the hotel to see if they could get our room ready.  They were able to get us a room by the time we arrived at the hotel.  The rooms were clean and very comfortable.  Our kids really enjoyed the pool... Just couple of blocks from the hotel there is really neat restaurant called Suzy Q's.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r131976314-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>131976314</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>NEVER STAY IN THIS HOTEL.</t>
+  </si>
+  <si>
+    <t>Never stay in this hotel! HORRIBLE service! My family stayed there, in three separate rooms. And we gave three seperate card. Well for no reason they charged MY CARD with no authorization! I didn't even need to pay because I had bought my room with points! When we spoke with the manger Kim, we got HORRIBLE treatment! She was rude&amp; got angry at my FOURTEEN YEAR OLD DAUGHTER for asking something! They made two huge errors for no reason an then they acted like it was our fault! If someone gives you a card signs for it, you charge THEM not a random person! They never apologized either but we're super rude. Once we got home they charged us ANOTHER room for no reason! When we called, Kim was super rude and hung up on us!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Never stay in this hotel! HORRIBLE service! My family stayed there, in three separate rooms. And we gave three seperate card. Well for no reason they charged MY CARD with no authorization! I didn't even need to pay because I had bought my room with points! When we spoke with the manger Kim, we got HORRIBLE treatment! She was rude&amp; got angry at my FOURTEEN YEAR OLD DAUGHTER for asking something! They made two huge errors for no reason an then they acted like it was our fault! If someone gives you a card signs for it, you charge THEM not a random person! They never apologized either but we're super rude. Once we got home they charged us ANOTHER room for no reason! When we called, Kim was super rude and hung up on us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r130777058-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>130777058</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Great staff and staff!</t>
+  </si>
+  <si>
+    <t>I go to Mansfield about once a month and have stayed at most of the hotels and the Holiday Inn Express is where I preferred to stay at.  My room is always ready and the staff goes above and beyond to make sure that my stay is comfortable.  Since the road construction is finished, it's been easier to get to the hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I go to Mansfield about once a month and have stayed at most of the hotels and the Holiday Inn Express is where I preferred to stay at.  My room is always ready and the staff goes above and beyond to make sure that my stay is comfortable.  Since the road construction is finished, it's been easier to get to the hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r128129814-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>128129814</t>
+  </si>
+  <si>
+    <t>04/18/2012</t>
+  </si>
+  <si>
+    <t>Not the best for Mansfield</t>
+  </si>
+  <si>
+    <t>The night started by being greeted at the counter by the front desk clerk who was licking the chicken off of his fingers. After explaining the normal amenities of the hotel, with a mouthful of food, I got my room key and headed up the elevator.The room was clean, but the window was broken. I didn’t notice this until after I had gotten up the next morning.The breakfast was awful but I only stayed there one night and I lived to tell the tale. I have since gone to my normal hotel when in Mansfield and will write a review on that one later.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded May 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2012</t>
+  </si>
+  <si>
+    <t>The night started by being greeted at the counter by the front desk clerk who was licking the chicken off of his fingers. After explaining the normal amenities of the hotel, with a mouthful of food, I got my room key and headed up the elevator.The room was clean, but the window was broken. I didn’t notice this until after I had gotten up the next morning.The breakfast was awful but I only stayed there one night and I lived to tell the tale. I have since gone to my normal hotel when in Mansfield and will write a review on that one later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r124916622-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>124916622</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Personnel &amp; Staff</t>
+  </si>
+  <si>
+    <t>Stayed three nights at this Hotel.    The personnel &amp; staff was very courtesy.  The rooms were very nice.. The location is nice, but the road construction was terrible, not the hotels fault.I will be staying there again as my grandchildren live in the area.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r120747631-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>120747631</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>Only Very Minor Complaints - Almost</t>
+  </si>
+  <si>
+    <t>Business trip had a small group of us staying here. The facility was nice except the construction on the access road made it a bit tough to get in and out of the  parking lot at times. The staff was average, not the beaming, smiley folks I usually see at HI Express. The room was comfortable with all amenities I expect to include a 36" flat screen. Breakfast was hot with scrambled eggs or omelets, sausage or bacon and biscuits and plenty of gravy. Juice was watery, coffee was OK.  One detractor, maid left my door open all day after the room was cleaned</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r119610950-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>119610950</t>
+  </si>
+  <si>
+    <t>10/22/2011</t>
+  </si>
+  <si>
+    <t>Best place to stay in Mansfield</t>
+  </si>
+  <si>
+    <t>This is the nicest hotel in Mansfield.  It can also be the priciest, and there are others that are almost as nice for less (i.e. Hampton Inn).  But when I'm only staying for a couple of days, this is always my choice.The staff is invariably friendly and accommodating, everything is clean, the beds are great, and the rooms and baths are spacious.  The internet is fast enough, the indoor pool and spa are REALLY NICE (even though the spa could be hotter), and the free breakfast is quite good, with hot dishes (waffles, eggs, bacon or sausage, biscuits &amp; gravy, oatmeal) to go with a wide variety of good continental options.  Always my first choice - doesn't always fit the budget for a long-term stay, but when it does, I'm very happy!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>This is the nicest hotel in Mansfield.  It can also be the priciest, and there are others that are almost as nice for less (i.e. Hampton Inn).  But when I'm only staying for a couple of days, this is always my choice.The staff is invariably friendly and accommodating, everything is clean, the beds are great, and the rooms and baths are spacious.  The internet is fast enough, the indoor pool and spa are REALLY NICE (even though the spa could be hotter), and the free breakfast is quite good, with hot dishes (waffles, eggs, bacon or sausage, biscuits &amp; gravy, oatmeal) to go with a wide variety of good continental options.  Always my first choice - doesn't always fit the budget for a long-term stay, but when it does, I'm very happy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r117168298-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>117168298</t>
+  </si>
+  <si>
+    <t>08/24/2011</t>
+  </si>
+  <si>
+    <t>What a beautiful place</t>
+  </si>
+  <si>
+    <t>we could not have asked for a more perfect stay.  from the moment we checked in until we left.  Breakfast was wonderful.  This property has  a managers reception on Tuesday evenings.  Wine and Beer were complimentary along with finger foods.  Entire staff went above and beyond the call of duty to make sure we have everything we needed.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r115737092-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>115737092</t>
+  </si>
+  <si>
+    <t>07/24/2011</t>
+  </si>
+  <si>
+    <t>Great economical business hotel</t>
+  </si>
+  <si>
+    <t>I have stayed at the Holiday Inn Express Mansfield dozens of times in last 3 years.  I usually favor Hampton Inns, but this hotel is hard to beat.  Excellent staff, quiet rooms, and great breakfasts (the cinnamon rolls are addictive).  If you have business in Mansfield, this is a great location.  For families, the hotel pool is nicer than average – indoor with a nice elevated hot tub included.  Chocolate chip cookies on Monday nights, complimentary light hors d'oeuvres on Tuesday and Wednesday nights.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r62228853-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>62228853</t>
+  </si>
+  <si>
+    <t>04/23/2010</t>
+  </si>
+  <si>
+    <t>Lovely and Eager to Satisfy</t>
+  </si>
+  <si>
+    <t>This new hotel was wonderful both because of the facility and the staff. Mansfield is not a general stop on most people's travel itinerary, but if you are there, you need to stay at this Holoiday Inn Express. The staff was incredibly accommodating with a strong and 'can -do' attitude that permeated each and every staff member over the weekend we were there. I was the planner of the event and for the months before our event every correspondence was concise and pleasant.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r59772317-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>59772317</t>
+  </si>
+  <si>
+    <t>03/28/2010</t>
+  </si>
+  <si>
+    <t>Terrific hotel</t>
+  </si>
+  <si>
+    <t>We had a terrific stay at the Holiday Inn Express in Mansfield.  The hotel looks like it is new or at least it is well taken care of.  Our room was very spacious and clean.  The mattress was so comfortable, I am trying to find out what kind it was so I can buy one.  The bathroom was large with granite countertops.  We used the free internet, complimentary bottles of water and the free breakfast.  We felt like we received a lot for our money.  When we checked out, I asked the nice lady at the front desk if she knew what kind of hand soap they had in the rooms.  She immediately insisted on giving me four bars to take home.  I will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>We had a terrific stay at the Holiday Inn Express in Mansfield.  The hotel looks like it is new or at least it is well taken care of.  Our room was very spacious and clean.  The mattress was so comfortable, I am trying to find out what kind it was so I can buy one.  The bathroom was large with granite countertops.  We used the free internet, complimentary bottles of water and the free breakfast.  We felt like we received a lot for our money.  When we checked out, I asked the nice lady at the front desk if she knew what kind of hand soap they had in the rooms.  She immediately insisted on giving me four bars to take home.  I will definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r58824267-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>58824267</t>
+  </si>
+  <si>
+    <t>03/17/2010</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>Arrived to this hotel in the middle of the February Dallas Snowstorm.  I was pleasantly surprised.  It was one of the better, cleaner Holiday Inn's that I have stayed at.  Room was clean and all amenities worked.  For its purpose, I could not have asked for anything more!  Great job!</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r57441441-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>57441441</t>
+  </si>
+  <si>
+    <t>03/01/2010</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>We booked a room with two queen beds in non-smoking.  Very clean, very quiet.  Everything worked and was well stocked.  Easy to find, and close to shopping and eating facilities.  Will definetly stay there again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r57170504-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>57170504</t>
+  </si>
+  <si>
+    <t>02/26/2010</t>
+  </si>
+  <si>
+    <t>Perfect for business traveler</t>
+  </si>
+  <si>
+    <t>Great little hotel, fairly new property so it's very clean and in super shape.  Nice flat screen TV, comfortable bed, lots of pillows, wireless was very fast and easy.  Breakfast was very good, continental+, snacks and drinks complimentary in the p.m.  Would definitely stay here again.  Staff was very friendy and helpful.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r35601093-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
@@ -587,9 +1415,6 @@
     <t>July 2009</t>
   </si>
   <si>
-    <t>SeeSee14</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r22658717-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -608,9 +1433,6 @@
     <t>December 2008</t>
   </si>
   <si>
-    <t>suzyqtx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r17009322-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -630,9 +1452,6 @@
   </si>
   <si>
     <t>5 of us stayed at the Holiday Inn Express in Mansfield for 2 nights.  A golf tournament was the main reason for going.The hotel is nice and clean, although there was a ceiling leak in the lobby.  The rooms are nice and clean, not to mention spacious.  There were 2 queen beds and a small sleeper sofa.The pool is indoors, and was nice, but a little cold to stay in it long.  Check in went smooth.  The breakfast offered each morning had both hot and cold items.  The only thing missing each morning was any fresh fruit.  There was none!  We would definitely stay here again if we are in the area.More</t>
-  </si>
-  <si>
-    <t>kkbenton</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r15376570-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
@@ -660,153 +1479,6 @@
 If you are in the HI Priority Club, you will receive a small gift at almost every stay (all but 1 for me.)  No exception here - a gift bag with bottled water, microwave popcorn, and some crackers.   I can always use the bottled water.
 They have one of the nicest indoor pool areas I have seen at this type of hotel - instead of plain concrete, its been made to look like stone all around, and has a raised hot tub with a waterfall.  Wish I had brought my bathing suit!
 Breakfast was pretty much run of the mill if you stay at places like this frequently - some fresh fruit and canned peaches, yogurt, a few...I pick Holiday Inn Express frequently for 2 reasons - they have one of the best frequent stay programs of any chain, and they have done a great job with their newer hotels.  The mansfield HIE is one of these - probably built in the last year if not the last few months.  They have the upgraded beds and bedding, flat screen TVs, granite in the bathrooms.  I have paid way more for rooms that weren't this nice.  Also - the front of the hotel looks onto 287, but the back faces a quiet yard and wooded area, which makes for a peaceful view.  I think there are train tracks back there as I heard a train once, but not at night.If you are in the HI Priority Club, you will receive a small gift at almost every stay (all but 1 for me.)  No exception here - a gift bag with bottled water, microwave popcorn, and some crackers.   I can always use the bottled water.They have one of the nicest indoor pool areas I have seen at this type of hotel - instead of plain concrete, its been made to look like stone all around, and has a raised hot tub with a waterfall.  Wish I had brought my bathing suit!Breakfast was pretty much run of the mill if you stay at places like this frequently - some fresh fruit and canned peaches, yogurt, a few hot items - biscuits, scrambled eggs.  Its reasonable, free, not outstanding.Basically, for the money (something like 110/night) you can't beat the room quality.More</t>
-  </si>
-  <si>
-    <t>BBGCR</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r579682287-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
-  </si>
-  <si>
-    <t>579682287</t>
-  </si>
-  <si>
-    <t>05/12/2018</t>
-  </si>
-  <si>
-    <t>Skip this hotel and look for something else...</t>
-  </si>
-  <si>
-    <t>Older hotel that's either being repaired or remodeled. Cheap construction and you can hear people next to you when they walk around. The typical boom, boom, boom of heavy footsteps. Looks like a construction zone inside and out. You'll get blasted by freight train horns all hours of the day and night. Never saw the railroad tracks, but you'll definitely hear the freight trains. Lots of rednecks and construction workers. Smoking area is right outside the front door - so each evening you're usually greeted with a cloud of second hand smoke to walk through. Parking situation is bad as well. Do yourself a favor and look elsewhere.MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Daniel R, Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Older hotel that's either being repaired or remodeled. Cheap construction and you can hear people next to you when they walk around. The typical boom, boom, boom of heavy footsteps. Looks like a construction zone inside and out. You'll get blasted by freight train horns all hours of the day and night. Never saw the railroad tracks, but you'll definitely hear the freight trains. Lots of rednecks and construction workers. Smoking area is right outside the front door - so each evening you're usually greeted with a cloud of second hand smoke to walk through. Parking situation is bad as well. Do yourself a favor and look elsewhere.More</t>
-  </si>
-  <si>
-    <t>TravelingDivaOne</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r547057837-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
-  </si>
-  <si>
-    <t>547057837</t>
-  </si>
-  <si>
-    <t>12/13/2017</t>
-  </si>
-  <si>
-    <t>Friendly staff and a comfortable stay</t>
-  </si>
-  <si>
-    <t>We stayed here for four nights while in town for a vow renewal ceremony. This was the hotel selected by the couple for their out of town guests. It was a good location if you're staying mostly in Mansfield. Close to highway if you're going to Dallas. The hotel itself is located on a one way street, so it isn't that easy to access. Several food and store options are nearby. The hotel itself was small, but adequate and accommodating. All of the staff I encountered was friendly and attentive. When we arrived, we were surprised they were offering dinner in the dining area. Tostadas complete with the optional fixins, and drinks(pop, beer, wine, and sangria) were offered. Our room was large and clean, and included a refrigerator, microwave, and Keurig. The bathroom was a nice size as well. The breakfast provided was enough to get the day started. It was more than a continental, but not a full breakfast buffet. There were plenty of cold and hot options. The pancake machine was pretty neat. I thought the fitness room was better than expected. Overall, it was a good stay.MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>Daniel R, Front Office Manager at Holiday Inn Express Hotel &amp; Suites Mansfield, responded to this reviewResponded December 14, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 14, 2017</t>
-  </si>
-  <si>
-    <t>We stayed here for four nights while in town for a vow renewal ceremony. This was the hotel selected by the couple for their out of town guests. It was a good location if you're staying mostly in Mansfield. Close to highway if you're going to Dallas. The hotel itself is located on a one way street, so it isn't that easy to access. Several food and store options are nearby. The hotel itself was small, but adequate and accommodating. All of the staff I encountered was friendly and attentive. When we arrived, we were surprised they were offering dinner in the dining area. Tostadas complete with the optional fixins, and drinks(pop, beer, wine, and sangria) were offered. Our room was large and clean, and included a refrigerator, microwave, and Keurig. The bathroom was a nice size as well. The breakfast provided was enough to get the day started. It was more than a continental, but not a full breakfast buffet. There were plenty of cold and hot options. The pancake machine was pretty neat. I thought the fitness room was better than expected. Overall, it was a good stay.More</t>
-  </si>
-  <si>
-    <t>GARY E</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r532930588-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
-  </si>
-  <si>
-    <t>532930588</t>
-  </si>
-  <si>
-    <t>10/14/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off the road </t>
-  </si>
-  <si>
-    <t>Stayed here for one night while on business. It was the average older hotel. They had a nice evening reception. Getting to the hotel was hard to get too you have to be on the interstate my google maps did not get me there. No restaurants adjacent to the property they are a exit north after the famous Texas turn around feeder road system.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>Stayed here for one night while on business. It was the average older hotel. They had a nice evening reception. Getting to the hotel was hard to get too you have to be on the interstate my google maps did not get me there. No restaurants adjacent to the property they are a exit north after the famous Texas turn around feeder road system.More</t>
-  </si>
-  <si>
-    <t>Crystal T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r487327727-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
-  </si>
-  <si>
-    <t>487327727</t>
-  </si>
-  <si>
-    <t>05/24/2017</t>
-  </si>
-  <si>
-    <t>Fair</t>
-  </si>
-  <si>
-    <t>Ac didn't work in the first room. They moved us right away.  New room smelled like weed big time but it was freezing and I was tired so I went with it.  Housekeeping needs to be retrained.  Hair on sheets and shower curtain. This is the first hotel I have ever been to that had real lights and a ceiling fan!  Hot tub was great but the pool was pretty cold.  Breakfast was good but stay away from the biscuits because they are rock hard! TV in the room is pretty small and hard to see.  Lobby area is clean and desk clerk was friendly and helpful.  He said they serve dinner on Tuesday and Wednesday night.  (Tuesday was pulled pork Wednesday lasagna) Hotel is easy to get to with tons of food places around it.  MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>Management response:Responded May 25, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 25, 2017</t>
-  </si>
-  <si>
-    <t>Ac didn't work in the first room. They moved us right away.  New room smelled like weed big time but it was freezing and I was tired so I went with it.  Housekeeping needs to be retrained.  Hair on sheets and shower curtain. This is the first hotel I have ever been to that had real lights and a ceiling fan!  Hot tub was great but the pool was pretty cold.  Breakfast was good but stay away from the biscuits because they are rock hard! TV in the room is pretty small and hard to see.  Lobby area is clean and desk clerk was friendly and helpful.  He said they serve dinner on Tuesday and Wednesday night.  (Tuesday was pulled pork Wednesday lasagna) Hotel is easy to get to with tons of food places around it.  More</t>
-  </si>
-  <si>
-    <t>Michele C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d676450-r474311263-Holiday_Inn_Express_Hotel_Suites_Mansfield-Mansfield_Texas.html</t>
-  </si>
-  <si>
-    <t>474311263</t>
-  </si>
-  <si>
-    <t>04/10/2017</t>
-  </si>
-  <si>
-    <t>Nice area, lots of shops and restaurants</t>
-  </si>
-  <si>
-    <t>We stayed at this hotel while visiting family. The staff was friendly and helpful. Housekeeping did a great job and I had fun practicing my Spanish. The breakfast area was clean and organized. The hotel was easily accessible.MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t>Management response:Responded May 8, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 8, 2017</t>
-  </si>
-  <si>
-    <t>We stayed at this hotel while visiting family. The staff was friendly and helpful. Housekeeping did a great job and I had fun practicing my Spanish. The breakfast area was clean and organized. The hotel was easily accessible.More</t>
   </si>
 </sst>
 </file>
@@ -1311,128 +1983,124 @@
       <c r="A2" t="n">
         <v>56665</v>
       </c>
-      <c r="B2" t="n">
-        <v>22080</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56665</v>
       </c>
-      <c r="B3" t="n">
-        <v>156005</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
       <c r="Y3" t="s">
         <v>65</v>
       </c>
@@ -1447,16 +2115,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
@@ -1471,75 +2139,75 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56665</v>
       </c>
-      <c r="B5" t="n">
-        <v>156006</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1549,480 +2217,438 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56665</v>
       </c>
-      <c r="B6" t="n">
-        <v>16147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56665</v>
       </c>
-      <c r="B7" t="n">
-        <v>156007</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56665</v>
       </c>
-      <c r="B8" t="n">
-        <v>21893</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56665</v>
       </c>
-      <c r="B9" t="n">
-        <v>105342</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56665</v>
       </c>
-      <c r="B10" t="n">
-        <v>154961</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
         <v>119</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56665</v>
       </c>
-      <c r="B11" t="n">
-        <v>136571</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>123</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>124</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>125</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>126</v>
       </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56665</v>
       </c>
-      <c r="B12" t="n">
-        <v>95382</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
         <v>132</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" t="s">
-        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
         <v>3</v>
       </c>
@@ -2036,61 +2662,53 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>138</v>
-      </c>
-      <c r="X12" t="s">
-        <v>139</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56665</v>
       </c>
-      <c r="B13" t="n">
-        <v>156008</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2101,74 +2719,60 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>149</v>
-      </c>
-      <c r="X13" t="s">
-        <v>150</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56665</v>
       </c>
-      <c r="B14" t="n">
-        <v>6587</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
         <v>4</v>
       </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2176,295 +2780,237 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>159</v>
-      </c>
-      <c r="X14" t="s">
-        <v>160</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56665</v>
       </c>
-      <c r="B15" t="n">
-        <v>156009</v>
-      </c>
-      <c r="C15" t="s">
-        <v>162</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>169</v>
-      </c>
-      <c r="X15" t="s">
-        <v>170</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56665</v>
       </c>
-      <c r="B16" t="n">
-        <v>156010</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>179</v>
-      </c>
-      <c r="X16" t="s">
-        <v>180</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56665</v>
       </c>
-      <c r="B17" t="n">
-        <v>156011</v>
-      </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56665</v>
       </c>
-      <c r="B18" t="n">
-        <v>156012</v>
-      </c>
-      <c r="C18" t="s">
-        <v>189</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="s"/>
       <c r="V18" t="n">
@@ -2473,70 +3019,60 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56665</v>
       </c>
-      <c r="B19" t="n">
-        <v>156013</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2544,407 +3080,2718 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56665</v>
       </c>
-      <c r="B20" t="n">
-        <v>156014</v>
-      </c>
-      <c r="C20" t="s">
-        <v>204</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>210</v>
-      </c>
-      <c r="O20" t="s">
-        <v>64</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56665</v>
       </c>
-      <c r="B21" t="n">
-        <v>156015</v>
-      </c>
-      <c r="C21" t="s">
-        <v>212</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>219</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="X21" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="Y21" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56665</v>
       </c>
-      <c r="B22" t="n">
-        <v>156016</v>
-      </c>
-      <c r="C22" t="s">
-        <v>223</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="X22" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="Y22" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56665</v>
       </c>
-      <c r="B23" t="n">
-        <v>156017</v>
-      </c>
-      <c r="C23" t="s">
-        <v>233</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="Y23" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56665</v>
       </c>
-      <c r="B24" t="n">
-        <v>26334</v>
-      </c>
-      <c r="C24" t="s">
-        <v>241</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="X24" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="Y24" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56665</v>
       </c>
-      <c r="B25" t="n">
-        <v>22886</v>
-      </c>
-      <c r="C25" t="s">
-        <v>251</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>219</v>
+      </c>
+      <c r="X25" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>228</v>
+      </c>
+      <c r="X26" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>236</v>
+      </c>
+      <c r="X27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>236</v>
+      </c>
+      <c r="X28" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>236</v>
+      </c>
+      <c r="X29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>259</v>
+      </c>
+      <c r="X30" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>267</v>
+      </c>
+      <c r="X31" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>276</v>
+      </c>
+      <c r="X32" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>284</v>
+      </c>
+      <c r="X33" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>292</v>
+      </c>
+      <c r="X34" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>296</v>
+      </c>
+      <c r="J35" t="s">
+        <v>297</v>
+      </c>
+      <c r="K35" t="s">
+        <v>298</v>
+      </c>
+      <c r="L35" t="s">
+        <v>299</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>300</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J36" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>300</v>
+      </c>
+      <c r="O36" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s">
+        <v>314</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X37" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>301</v>
+      </c>
+      <c r="X38" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>331</v>
+      </c>
+      <c r="O39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>332</v>
+      </c>
+      <c r="X39" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>340</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>341</v>
+      </c>
+      <c r="X40" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>345</v>
+      </c>
+      <c r="J41" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" t="s">
+        <v>347</v>
+      </c>
+      <c r="L41" t="s">
+        <v>348</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>349</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>350</v>
+      </c>
+      <c r="X41" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>353</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>354</v>
+      </c>
+      <c r="J42" t="s">
+        <v>355</v>
+      </c>
+      <c r="K42" t="s">
+        <v>356</v>
+      </c>
+      <c r="L42" t="s">
+        <v>357</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>358</v>
+      </c>
+      <c r="O42" t="s">
+        <v>89</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>350</v>
+      </c>
+      <c r="X42" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>361</v>
+      </c>
+      <c r="J43" t="s">
+        <v>362</v>
+      </c>
+      <c r="K43" t="s">
+        <v>363</v>
+      </c>
+      <c r="L43" t="s">
+        <v>364</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>365</v>
+      </c>
+      <c r="O43" t="s">
+        <v>89</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>366</v>
+      </c>
+      <c r="X43" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>370</v>
+      </c>
+      <c r="J44" t="s">
+        <v>371</v>
+      </c>
+      <c r="K44" t="s">
+        <v>372</v>
+      </c>
+      <c r="L44" t="s">
+        <v>373</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>374</v>
+      </c>
+      <c r="X44" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
         <v>44</v>
       </c>
-      <c r="F25" t="s">
-        <v>252</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>382</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>366</v>
+      </c>
+      <c r="X45" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>384</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>385</v>
+      </c>
+      <c r="J46" t="s">
+        <v>386</v>
+      </c>
+      <c r="K46" t="s">
+        <v>387</v>
+      </c>
+      <c r="L46" t="s">
+        <v>388</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>389</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>390</v>
+      </c>
+      <c r="X46" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>393</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>394</v>
+      </c>
+      <c r="J47" t="s">
+        <v>395</v>
+      </c>
+      <c r="K47" t="s">
+        <v>396</v>
+      </c>
+      <c r="L47" t="s">
+        <v>397</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>398</v>
+      </c>
+      <c r="O47" t="s">
+        <v>89</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
         <v>47</v>
       </c>
-      <c r="I25" t="s">
-        <v>253</v>
-      </c>
-      <c r="J25" t="s">
-        <v>254</v>
-      </c>
-      <c r="K25" t="s">
-        <v>255</v>
-      </c>
-      <c r="L25" t="s">
-        <v>256</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>257</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>404</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" t="s">
+        <v>408</v>
+      </c>
+      <c r="L49" t="s">
+        <v>409</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>410</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>412</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>413</v>
+      </c>
+      <c r="J50" t="s">
+        <v>414</v>
+      </c>
+      <c r="K50" t="s">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s">
+        <v>416</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>417</v>
+      </c>
+      <c r="O50" t="s">
+        <v>89</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>418</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>419</v>
+      </c>
+      <c r="J51" t="s">
+        <v>420</v>
+      </c>
+      <c r="K51" t="s">
+        <v>421</v>
+      </c>
+      <c r="L51" t="s">
+        <v>422</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>423</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>424</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>425</v>
+      </c>
+      <c r="J52" t="s">
+        <v>426</v>
+      </c>
+      <c r="K52" t="s">
+        <v>427</v>
+      </c>
+      <c r="L52" t="s">
+        <v>428</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>429</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>430</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>431</v>
+      </c>
+      <c r="J53" t="s">
+        <v>432</v>
+      </c>
+      <c r="K53" t="s">
+        <v>433</v>
+      </c>
+      <c r="L53" t="s">
+        <v>434</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>435</v>
+      </c>
+      <c r="O53" t="s">
+        <v>126</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
         <v>53</v>
       </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s">
-        <v>258</v>
-      </c>
-      <c r="X25" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>260</v>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>437</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>438</v>
+      </c>
+      <c r="J54" t="s">
+        <v>439</v>
+      </c>
+      <c r="K54" t="s">
+        <v>440</v>
+      </c>
+      <c r="L54" t="s">
+        <v>441</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>442</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>444</v>
+      </c>
+      <c r="J55" t="s">
+        <v>445</v>
+      </c>
+      <c r="K55" t="s">
+        <v>446</v>
+      </c>
+      <c r="L55" t="s">
+        <v>447</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>442</v>
+      </c>
+      <c r="O55" t="s">
+        <v>89</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>448</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>449</v>
+      </c>
+      <c r="J56" t="s">
+        <v>450</v>
+      </c>
+      <c r="K56" t="s">
+        <v>451</v>
+      </c>
+      <c r="L56" t="s">
+        <v>452</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>442</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>454</v>
+      </c>
+      <c r="J57" t="s">
+        <v>455</v>
+      </c>
+      <c r="K57" t="s">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s">
+        <v>457</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>126</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>459</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J58" t="s">
+        <v>461</v>
+      </c>
+      <c r="K58" t="s">
+        <v>462</v>
+      </c>
+      <c r="L58" t="s">
+        <v>463</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>464</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>465</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>466</v>
+      </c>
+      <c r="J59" t="s">
+        <v>467</v>
+      </c>
+      <c r="K59" t="s">
+        <v>468</v>
+      </c>
+      <c r="L59" t="s">
+        <v>469</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>470</v>
+      </c>
+      <c r="O59" t="s">
+        <v>89</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56665</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>472</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" t="s">
+        <v>474</v>
+      </c>
+      <c r="K60" t="s">
+        <v>475</v>
+      </c>
+      <c r="L60" t="s">
+        <v>476</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>477</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
